--- a/ITP2/03_Risiko Management/PERT-Berechnung_1.xlsx
+++ b/ITP2/03_Risiko Management/PERT-Berechnung_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\5AHITM\ITP2\03_Risiko Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\5AHITM\ITP2\03_Risiko Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895DE172-4D22-4E93-9550-1172B0ADF46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC394A9-2604-4FA8-A5A6-F2173CB5476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Gewünschter Gewinn (G)</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Angebotssumme für Vertrag mit Projektdauer von 18 Monaten</t>
+  </si>
+  <si>
+    <t>21 Monate</t>
   </si>
 </sst>
 </file>
@@ -749,22 +752,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AMI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="117" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="1"/>
-    <col min="7" max="7" width="54.5703125" style="1" customWidth="1"/>
-    <col min="8" max="1023" width="11.5703125" style="1"/>
+    <col min="5" max="6" width="11.5546875" style="1"/>
+    <col min="7" max="7" width="54.5546875" style="1" customWidth="1"/>
+    <col min="8" max="1023" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,16 +781,16 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -801,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>0.95</v>
       </c>
@@ -816,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>0.05</v>
       </c>
@@ -832,11 +835,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="str">
         <f>"G = " &amp; A6 &amp; "*x + " &amp; A7 &amp; "*(x - x*" &amp;C7 &amp; ")"</f>
         <v>G = 0,95*x + 0,05*(x - x*0,01)</v>
@@ -846,14 +849,14 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="str">
         <f>"x = G / (1 - " &amp; A7*C7&amp;")"</f>
         <v>x = G / (1 - 0,0005)</v>
       </c>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="str">
         <f>"x = " &amp; $B$2 / (1 - A7*C7)</f>
         <v>x = 100,050025012506</v>
@@ -864,10 +867,10 @@
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -881,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>0.7</v>
       </c>
@@ -896,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>0.25</v>
       </c>
@@ -912,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>0.05</v>
       </c>
@@ -928,25 +931,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="str">
         <f>"G = " &amp; A16 &amp; "*x + " &amp; A17 &amp; "*(x - x*" &amp;C17 &amp; ")  + "&amp; A18&amp; "*(x - x*" &amp; C18 &amp; ")"</f>
         <v>G = 0,7*x + 0,25*(x - x*0,01)  + 0,05*(x - x*0,02)</v>
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="str">
         <f>"x = G / (1 - " &amp; A17*C17&amp;" - " &amp;A18*C18&amp;")"</f>
         <v>x = G / (1 - 0,0025 - 0,001)</v>
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="str">
         <f>"x = " &amp; $B$2 / (1 -  A17*C17 - A18*C18)</f>
         <v>x = 100,351229302559</v>
@@ -957,7 +960,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,16 +974,16 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -994,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>0.55000000000000004</v>
       </c>
@@ -1009,12 +1012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>0.15</v>
       </c>
-      <c r="B30" s="1">
-        <v>19</v>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C30" s="11">
         <v>0.01</v>
@@ -1024,12 +1027,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>0.25</v>
       </c>
-      <c r="B31" s="1">
-        <v>20</v>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="11">
         <v>0.02</v>
@@ -1038,11 +1041,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>0.05</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="11">
@@ -1052,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="str">
         <f>"G = " &amp; A29 &amp; "*x + " &amp; A30 &amp; "*(x - x*" &amp;C30 &amp; ")  + "&amp; A31&amp; "*(x - x*" &amp; C31 &amp; ")  + "&amp; A32&amp; "*(x - x*" &amp; C32 &amp; ")"</f>
         <v>G = 0,55*x + 0,15*(x - x*0,01)  + 0,25*(x - x*0,02)  + 0,05*(x - x*0,03)</v>
@@ -1062,14 +1065,14 @@
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="str">
         <f>"x = G / 1 - " &amp; A30*C30 &amp; " - " &amp; A31*C31 &amp; " - " &amp; A32*C32 &amp;")"</f>
         <v>x = G / 1 - 0,0015 - 0,005 - 0,0015)</v>
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="str">
         <f xml:space="preserve"> "x = " &amp; B25 / (1 - A30*C30 - A31*C31 - A32*C32)</f>
         <v>x = 100,806451612903</v>
@@ -1080,36 +1083,36 @@
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
